--- a/data new.xlsx
+++ b/data new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb73c92149bec3e5/Desktop/Angel/halo documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB1B21EA-DA8E-4FDB-8460-7A50673B667F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{BB1B21EA-DA8E-4FDB-8460-7A50673B667F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A24C062-5391-4B0C-A402-D32C880A9822}"/>
   <bookViews>
-    <workbookView xWindow="-12345" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A6707CEC-0942-455C-955D-BC7705DD8D4F}"/>
+    <workbookView xWindow="2070" yWindow="-16200" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{A6707CEC-0942-455C-955D-BC7705DD8D4F}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="1670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="1675">
   <si>
     <t>#</t>
   </si>
@@ -5046,7 +5046,22 @@
     <t>ESTC</t>
   </si>
   <si>
-    <t>McDonald</t>
+    <t>McDonalds</t>
+  </si>
+  <si>
+    <t>CrowdStrike</t>
+  </si>
+  <si>
+    <t>ServiceNow</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>ASML Holding</t>
   </si>
 </sst>
 </file>
@@ -17026,8 +17041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60970DAA-81EE-4DC8-9A5E-EBF7C1040955}">
   <dimension ref="A1:G504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="114" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="114" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17157,7 +17172,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>1672</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -17295,7 +17310,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>1673</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
@@ -17465,7 +17480,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>1652</v>
+        <v>1674</v>
       </c>
       <c r="C25" t="s">
         <v>1652</v>
@@ -17669,9 +17684,27 @@
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C42" t="s">
+        <v>356</v>
+      </c>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C43" t="s">
+        <v>175</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="G43" s="1"/>
     </row>

--- a/data new.xlsx
+++ b/data new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb73c92149bec3e5/Desktop/Angel/halo documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{BB1B21EA-DA8E-4FDB-8460-7A50673B667F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A24C062-5391-4B0C-A402-D32C880A9822}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{BB1B21EA-DA8E-4FDB-8460-7A50673B667F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32E8503C-597B-4D37-8D7E-B9760C52D89C}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="-16200" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{A6707CEC-0942-455C-955D-BC7705DD8D4F}"/>
+    <workbookView xWindow="-10065" yWindow="-14040" windowWidth="21600" windowHeight="11175" activeTab="1" xr2:uid="{A6707CEC-0942-455C-955D-BC7705DD8D4F}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="1675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="1673">
   <si>
     <t>#</t>
   </si>
@@ -4992,9 +4992,6 @@
     <t>Oracle</t>
   </si>
   <si>
-    <t>Home Depot</t>
-  </si>
-  <si>
     <t>ASML</t>
   </si>
   <si>
@@ -5032,9 +5029,6 @@
   </si>
   <si>
     <t>Intel</t>
-  </si>
-  <si>
-    <t>Pepsico</t>
   </si>
   <si>
     <t>Super Micro Computer Inc</t>
@@ -5115,6 +5109,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17039,10 +17037,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60970DAA-81EE-4DC8-9A5E-EBF7C1040955}">
-  <dimension ref="A1:G504"/>
+  <dimension ref="A1:G502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="114" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="114" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17172,7 +17170,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -17310,7 +17308,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
@@ -17468,10 +17466,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C24" t="s">
         <v>1651</v>
-      </c>
-      <c r="C24" t="s">
-        <v>76</v>
       </c>
       <c r="D24" s="1"/>
     </row>
@@ -17480,12 +17478,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>1674</v>
+        <v>1652</v>
       </c>
       <c r="C25" t="s">
-        <v>1652</v>
+        <v>90</v>
       </c>
       <c r="D25" s="1"/>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
@@ -17495,7 +17494,7 @@
         <v>1653</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D26" s="1"/>
       <c r="G26" s="1"/>
@@ -17508,10 +17507,9 @@
         <v>1654</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
@@ -17521,7 +17519,7 @@
         <v>1655</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D28" s="1"/>
     </row>
@@ -17533,7 +17531,7 @@
         <v>1656</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D29" s="1"/>
     </row>
@@ -17545,7 +17543,7 @@
         <v>1657</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D30" s="1"/>
     </row>
@@ -17557,7 +17555,7 @@
         <v>1658</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>1659</v>
       </c>
       <c r="D31" s="1"/>
     </row>
@@ -17566,12 +17564,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="C32" t="s">
-        <v>1660</v>
+        <v>107</v>
       </c>
       <c r="D32" s="1"/>
+      <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
@@ -17581,10 +17580,9 @@
         <v>1661</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>1661</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
@@ -17594,7 +17592,7 @@
         <v>1662</v>
       </c>
       <c r="C34" t="s">
-        <v>1662</v>
+        <v>104</v>
       </c>
       <c r="D34" s="1"/>
     </row>
@@ -17603,10 +17601,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>1663</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D35" s="1"/>
     </row>
@@ -17615,10 +17613,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>1663</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>227</v>
       </c>
       <c r="D36" s="1"/>
     </row>
@@ -17630,7 +17628,7 @@
         <v>1664</v>
       </c>
       <c r="C37" t="s">
-        <v>227</v>
+        <v>653</v>
       </c>
       <c r="D37" s="1"/>
     </row>
@@ -17642,20 +17640,19 @@
         <v>1665</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>1666</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="C39" t="s">
-        <v>653</v>
+        <v>152</v>
       </c>
       <c r="D39" s="1"/>
     </row>
@@ -17664,10 +17661,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="C40" t="s">
-        <v>1668</v>
+        <v>356</v>
       </c>
       <c r="D40" s="1"/>
     </row>
@@ -17679,40 +17676,24 @@
         <v>1669</v>
       </c>
       <c r="C41" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="D41" s="1"/>
+      <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C42" t="s">
-        <v>356</v>
-      </c>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1671</v>
-      </c>
-      <c r="C43" t="s">
-        <v>175</v>
-      </c>
       <c r="D43" s="1"/>
-      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D44" s="1"/>
+      <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D45" s="1"/>
+      <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D46" s="1"/>
@@ -17720,7 +17701,6 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D47" s="1"/>
-      <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D48" s="1"/>
@@ -17742,6 +17722,7 @@
     </row>
     <row r="53" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D53" s="1"/>
+      <c r="G53" s="1"/>
     </row>
     <row r="54" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D54" s="1"/>
@@ -17753,7 +17734,6 @@
     </row>
     <row r="56" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D56" s="1"/>
-      <c r="G56" s="1"/>
     </row>
     <row r="57" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D57" s="1"/>
@@ -17768,24 +17748,24 @@
     </row>
     <row r="60" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D60" s="1"/>
+      <c r="G60" s="1"/>
     </row>
     <row r="61" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D61" s="1"/>
-      <c r="G61" s="1"/>
     </row>
     <row r="62" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D62" s="1"/>
-      <c r="G62" s="1"/>
     </row>
     <row r="63" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D63" s="1"/>
+      <c r="G63" s="1"/>
     </row>
     <row r="64" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D64" s="1"/>
+      <c r="G64" s="1"/>
     </row>
     <row r="65" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D65" s="1"/>
-      <c r="G65" s="1"/>
     </row>
     <row r="66" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D66" s="1"/>
@@ -17793,10 +17773,10 @@
     </row>
     <row r="67" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D67" s="1"/>
+      <c r="G67" s="1"/>
     </row>
     <row r="68" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D68" s="1"/>
-      <c r="G68" s="1"/>
     </row>
     <row r="69" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D69" s="1"/>
@@ -17804,6 +17784,7 @@
     </row>
     <row r="70" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D70" s="1"/>
+      <c r="G70" s="1"/>
     </row>
     <row r="71" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D71" s="1"/>
@@ -17811,17 +17792,17 @@
     </row>
     <row r="72" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D72" s="1"/>
-      <c r="G72" s="1"/>
     </row>
     <row r="73" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D73" s="1"/>
-      <c r="G73" s="1"/>
     </row>
     <row r="74" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D74" s="1"/>
+      <c r="G74" s="1"/>
     </row>
     <row r="75" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D75" s="1"/>
+      <c r="G75" s="1"/>
     </row>
     <row r="76" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D76" s="1"/>
@@ -17837,11 +17818,9 @@
     </row>
     <row r="79" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D79" s="1"/>
-      <c r="G79" s="1"/>
     </row>
     <row r="80" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D80" s="1"/>
-      <c r="G80" s="1"/>
     </row>
     <row r="81" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D81" s="1"/>
@@ -17851,9 +17830,11 @@
     </row>
     <row r="83" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D83" s="1"/>
+      <c r="G83" s="1"/>
     </row>
     <row r="84" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D84" s="1"/>
+      <c r="G84" s="1"/>
     </row>
     <row r="85" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D85" s="1"/>
@@ -17869,7 +17850,6 @@
     </row>
     <row r="88" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D88" s="1"/>
-      <c r="G88" s="1"/>
     </row>
     <row r="89" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D89" s="1"/>
@@ -17880,7 +17860,6 @@
     </row>
     <row r="91" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D91" s="1"/>
-      <c r="G91" s="1"/>
     </row>
     <row r="92" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D92" s="1"/>
@@ -17896,6 +17875,7 @@
     </row>
     <row r="96" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D96" s="1"/>
+      <c r="G96" s="1"/>
     </row>
     <row r="97" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D97" s="1"/>
@@ -17906,24 +17886,23 @@
     </row>
     <row r="99" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D99" s="1"/>
+      <c r="G99" s="1"/>
     </row>
     <row r="100" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D100" s="1"/>
-      <c r="G100" s="1"/>
     </row>
     <row r="101" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D101" s="1"/>
-      <c r="G101" s="1"/>
     </row>
     <row r="102" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D102" s="1"/>
+      <c r="G102" s="1"/>
     </row>
     <row r="103" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D103" s="1"/>
     </row>
     <row r="104" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D104" s="1"/>
-      <c r="G104" s="1"/>
     </row>
     <row r="105" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D105" s="1"/>
@@ -17936,6 +17915,7 @@
     </row>
     <row r="108" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D108" s="1"/>
+      <c r="G108" s="1"/>
     </row>
     <row r="109" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D109" s="1"/>
@@ -17946,6 +17926,7 @@
     </row>
     <row r="111" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D111" s="1"/>
+      <c r="G111" s="1"/>
     </row>
     <row r="112" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D112" s="1"/>
@@ -17957,7 +17938,6 @@
     </row>
     <row r="114" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D114" s="1"/>
-      <c r="G114" s="1"/>
     </row>
     <row r="115" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D115" s="1"/>
@@ -17965,6 +17945,7 @@
     </row>
     <row r="116" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D116" s="1"/>
+      <c r="G116" s="1"/>
     </row>
     <row r="117" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D117" s="1"/>
@@ -17976,7 +17957,6 @@
     </row>
     <row r="119" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D119" s="1"/>
-      <c r="G119" s="1"/>
     </row>
     <row r="120" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D120" s="1"/>
@@ -17984,6 +17964,7 @@
     </row>
     <row r="121" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D121" s="1"/>
+      <c r="G121" s="1"/>
     </row>
     <row r="122" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D122" s="1"/>
@@ -17991,34 +17972,34 @@
     </row>
     <row r="123" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D123" s="1"/>
-      <c r="G123" s="1"/>
     </row>
     <row r="124" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D124" s="1"/>
-      <c r="G124" s="1"/>
     </row>
     <row r="125" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D125" s="1"/>
     </row>
     <row r="126" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D126" s="1"/>
+      <c r="G126" s="1"/>
     </row>
     <row r="127" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D127" s="1"/>
+      <c r="G127" s="1"/>
     </row>
     <row r="128" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D128" s="1"/>
-      <c r="G128" s="1"/>
     </row>
     <row r="129" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D129" s="1"/>
-      <c r="G129" s="1"/>
     </row>
     <row r="130" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D130" s="1"/>
+      <c r="G130" s="1"/>
     </row>
     <row r="131" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D131" s="1"/>
+      <c r="G131" s="1"/>
     </row>
     <row r="132" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D132" s="1"/>
@@ -18026,17 +18007,17 @@
     </row>
     <row r="133" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D133" s="1"/>
-      <c r="G133" s="1"/>
     </row>
     <row r="134" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D134" s="1"/>
-      <c r="G134" s="1"/>
     </row>
     <row r="135" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D135" s="1"/>
+      <c r="G135" s="1"/>
     </row>
     <row r="136" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D136" s="1"/>
+      <c r="G136" s="1"/>
     </row>
     <row r="137" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D137" s="1"/>
@@ -18048,14 +18029,13 @@
     </row>
     <row r="139" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D139" s="1"/>
-      <c r="G139" s="1"/>
     </row>
     <row r="140" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D140" s="1"/>
-      <c r="G140" s="1"/>
     </row>
     <row r="141" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D141" s="1"/>
+      <c r="G141" s="1"/>
     </row>
     <row r="142" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D142" s="1"/>
@@ -18066,34 +18046,33 @@
     </row>
     <row r="144" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D144" s="1"/>
+      <c r="G144" s="1"/>
     </row>
     <row r="145" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D145" s="1"/>
-      <c r="G145" s="1"/>
     </row>
     <row r="146" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D146" s="1"/>
-      <c r="G146" s="1"/>
     </row>
     <row r="147" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D147" s="1"/>
+      <c r="G147" s="1"/>
     </row>
     <row r="148" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D148" s="1"/>
     </row>
     <row r="149" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D149" s="1"/>
-      <c r="G149" s="1"/>
     </row>
     <row r="150" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D150" s="1"/>
+      <c r="G150" s="1"/>
     </row>
     <row r="151" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D151" s="1"/>
     </row>
     <row r="152" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D152" s="1"/>
-      <c r="G152" s="1"/>
     </row>
     <row r="153" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D153" s="1"/>
@@ -18103,54 +18082,55 @@
     </row>
     <row r="155" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D155" s="1"/>
+      <c r="G155" s="1"/>
     </row>
     <row r="156" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D156" s="1"/>
+      <c r="G156" s="1"/>
     </row>
     <row r="157" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D157" s="1"/>
-      <c r="G157" s="1"/>
     </row>
     <row r="158" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D158" s="1"/>
-      <c r="G158" s="1"/>
     </row>
     <row r="159" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D159" s="1"/>
+      <c r="G159" s="1"/>
     </row>
     <row r="160" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D160" s="1"/>
+      <c r="G160" s="1"/>
     </row>
     <row r="161" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D161" s="1"/>
-      <c r="G161" s="1"/>
     </row>
     <row r="162" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D162" s="1"/>
-      <c r="G162" s="1"/>
     </row>
     <row r="163" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D163" s="1"/>
+      <c r="G163" s="1"/>
     </row>
     <row r="164" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D164" s="1"/>
     </row>
     <row r="165" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D165" s="1"/>
-      <c r="G165" s="1"/>
     </row>
     <row r="166" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D166" s="1"/>
     </row>
     <row r="167" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D167" s="1"/>
+      <c r="G167" s="1"/>
     </row>
     <row r="168" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D168" s="1"/>
+      <c r="G168" s="1"/>
     </row>
     <row r="169" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D169" s="1"/>
-      <c r="G169" s="1"/>
     </row>
     <row r="170" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D170" s="1"/>
@@ -18158,6 +18138,7 @@
     </row>
     <row r="171" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D171" s="1"/>
+      <c r="G171" s="1"/>
     </row>
     <row r="172" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D172" s="1"/>
@@ -18169,7 +18150,6 @@
     </row>
     <row r="174" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D174" s="1"/>
-      <c r="G174" s="1"/>
     </row>
     <row r="175" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D175" s="1"/>
@@ -18180,16 +18160,17 @@
     </row>
     <row r="177" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D177" s="1"/>
-      <c r="G177" s="1"/>
     </row>
     <row r="178" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D178" s="1"/>
     </row>
     <row r="179" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D179" s="1"/>
+      <c r="G179" s="1"/>
     </row>
     <row r="180" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D180" s="1"/>
+      <c r="G180" s="1"/>
     </row>
     <row r="181" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D181" s="1"/>
@@ -18201,7 +18182,6 @@
     </row>
     <row r="183" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D183" s="1"/>
-      <c r="G183" s="1"/>
     </row>
     <row r="184" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D184" s="1"/>
@@ -18216,6 +18196,7 @@
     </row>
     <row r="187" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D187" s="1"/>
+      <c r="G187" s="1"/>
     </row>
     <row r="188" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D188" s="1"/>
@@ -18223,14 +18204,13 @@
     </row>
     <row r="189" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D189" s="1"/>
-      <c r="G189" s="1"/>
     </row>
     <row r="190" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D190" s="1"/>
-      <c r="G190" s="1"/>
     </row>
     <row r="191" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D191" s="1"/>
+      <c r="G191" s="1"/>
     </row>
     <row r="192" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D192" s="1"/>
@@ -18241,6 +18221,7 @@
     </row>
     <row r="194" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D194" s="1"/>
+      <c r="G194" s="1"/>
     </row>
     <row r="195" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D195" s="1"/>
@@ -18252,17 +18233,17 @@
     </row>
     <row r="197" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D197" s="1"/>
-      <c r="G197" s="1"/>
     </row>
     <row r="198" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D198" s="1"/>
-      <c r="G198" s="1"/>
     </row>
     <row r="199" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D199" s="1"/>
+      <c r="G199" s="1"/>
     </row>
     <row r="200" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D200" s="1"/>
+      <c r="G200" s="1"/>
     </row>
     <row r="201" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D201" s="1"/>
@@ -18274,14 +18255,13 @@
     </row>
     <row r="203" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D203" s="1"/>
-      <c r="G203" s="1"/>
     </row>
     <row r="204" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D204" s="1"/>
-      <c r="G204" s="1"/>
     </row>
     <row r="205" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D205" s="1"/>
+      <c r="G205" s="1"/>
     </row>
     <row r="206" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D206" s="1"/>
@@ -18292,6 +18272,7 @@
     </row>
     <row r="208" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D208" s="1"/>
+      <c r="G208" s="1"/>
     </row>
     <row r="209" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D209" s="1"/>
@@ -18303,11 +18284,9 @@
     </row>
     <row r="211" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D211" s="1"/>
-      <c r="G211" s="1"/>
     </row>
     <row r="212" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D212" s="1"/>
-      <c r="G212" s="1"/>
     </row>
     <row r="213" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D213" s="1"/>
@@ -18326,6 +18305,7 @@
     </row>
     <row r="218" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D218" s="1"/>
+      <c r="G218" s="1"/>
     </row>
     <row r="219" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D219" s="1"/>
@@ -18336,6 +18316,7 @@
     </row>
     <row r="221" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D221" s="1"/>
+      <c r="G221" s="1"/>
     </row>
     <row r="222" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D222" s="1"/>
@@ -18343,31 +18324,30 @@
     </row>
     <row r="223" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D223" s="1"/>
-      <c r="G223" s="1"/>
     </row>
     <row r="224" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D224" s="1"/>
-      <c r="G224" s="1"/>
     </row>
     <row r="225" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D225" s="1"/>
+      <c r="G225" s="1"/>
     </row>
     <row r="226" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D226" s="1"/>
     </row>
     <row r="227" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D227" s="1"/>
-      <c r="G227" s="1"/>
     </row>
     <row r="228" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D228" s="1"/>
+      <c r="G228" s="1"/>
     </row>
     <row r="229" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D229" s="1"/>
+      <c r="G229" s="1"/>
     </row>
     <row r="230" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D230" s="1"/>
-      <c r="G230" s="1"/>
     </row>
     <row r="231" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D231" s="1"/>
@@ -18375,14 +18355,13 @@
     </row>
     <row r="232" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D232" s="1"/>
+      <c r="G232" s="1"/>
     </row>
     <row r="233" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D233" s="1"/>
-      <c r="G233" s="1"/>
     </row>
     <row r="234" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D234" s="1"/>
-      <c r="G234" s="1"/>
     </row>
     <row r="235" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D235" s="1"/>
@@ -18392,13 +18371,13 @@
     </row>
     <row r="237" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D237" s="1"/>
+      <c r="G237" s="1"/>
     </row>
     <row r="238" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D238" s="1"/>
     </row>
     <row r="239" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D239" s="1"/>
-      <c r="G239" s="1"/>
     </row>
     <row r="240" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D240" s="1"/>
@@ -18423,13 +18402,14 @@
     </row>
     <row r="247" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D247" s="1"/>
+      <c r="G247" s="1"/>
     </row>
     <row r="248" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D248" s="1"/>
+      <c r="G248" s="1"/>
     </row>
     <row r="249" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D249" s="1"/>
-      <c r="G249" s="1"/>
     </row>
     <row r="250" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D250" s="1"/>
@@ -18454,13 +18434,13 @@
     </row>
     <row r="256" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D256" s="1"/>
-      <c r="G256" s="1"/>
     </row>
     <row r="257" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D257" s="1"/>
     </row>
     <row r="258" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D258" s="1"/>
+      <c r="G258" s="1"/>
     </row>
     <row r="259" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D259" s="1"/>
@@ -18471,6 +18451,7 @@
     </row>
     <row r="261" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D261" s="1"/>
+      <c r="G261" s="1"/>
     </row>
     <row r="262" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D262" s="1"/>
@@ -18478,7 +18459,6 @@
     </row>
     <row r="263" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D263" s="1"/>
-      <c r="G263" s="1"/>
     </row>
     <row r="264" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D264" s="1"/>
@@ -18489,16 +18469,17 @@
     </row>
     <row r="266" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D266" s="1"/>
-      <c r="G266" s="1"/>
     </row>
     <row r="267" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D267" s="1"/>
     </row>
     <row r="268" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D268" s="1"/>
+      <c r="G268" s="1"/>
     </row>
     <row r="269" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D269" s="1"/>
+      <c r="G269" s="1"/>
     </row>
     <row r="270" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D270" s="1"/>
@@ -18522,11 +18503,9 @@
     </row>
     <row r="275" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D275" s="1"/>
-      <c r="G275" s="1"/>
     </row>
     <row r="276" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D276" s="1"/>
-      <c r="G276" s="1"/>
     </row>
     <row r="277" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D277" s="1"/>
@@ -18536,6 +18515,7 @@
     </row>
     <row r="279" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D279" s="1"/>
+      <c r="G279" s="1"/>
     </row>
     <row r="280" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D280" s="1"/>
@@ -18553,6 +18533,7 @@
     </row>
     <row r="284" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D284" s="1"/>
+      <c r="G284" s="1"/>
     </row>
     <row r="285" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D285" s="1"/>
@@ -18560,20 +18541,20 @@
     </row>
     <row r="286" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D286" s="1"/>
-      <c r="G286" s="1"/>
     </row>
     <row r="287" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D287" s="1"/>
-      <c r="G287" s="1"/>
     </row>
     <row r="288" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D288" s="1"/>
     </row>
     <row r="289" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D289" s="1"/>
+      <c r="G289" s="1"/>
     </row>
     <row r="290" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D290" s="1"/>
+      <c r="G290" s="1"/>
     </row>
     <row r="291" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D291" s="1"/>
@@ -18581,7 +18562,6 @@
     </row>
     <row r="292" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D292" s="1"/>
-      <c r="G292" s="1"/>
     </row>
     <row r="293" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D293" s="1"/>
@@ -18596,6 +18576,7 @@
     </row>
     <row r="296" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D296" s="1"/>
+      <c r="G296" s="1"/>
     </row>
     <row r="297" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D297" s="1"/>
@@ -18603,7 +18584,6 @@
     </row>
     <row r="298" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D298" s="1"/>
-      <c r="G298" s="1"/>
     </row>
     <row r="299" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D299" s="1"/>
@@ -18611,6 +18591,7 @@
     </row>
     <row r="300" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D300" s="1"/>
+      <c r="G300" s="1"/>
     </row>
     <row r="301" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D301" s="1"/>
@@ -18626,7 +18607,6 @@
     </row>
     <row r="304" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D304" s="1"/>
-      <c r="G304" s="1"/>
     </row>
     <row r="305" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D305" s="1"/>
@@ -18634,6 +18614,7 @@
     </row>
     <row r="306" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D306" s="1"/>
+      <c r="G306" s="1"/>
     </row>
     <row r="307" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D307" s="1"/>
@@ -18649,7 +18630,6 @@
     </row>
     <row r="310" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D310" s="1"/>
-      <c r="G310" s="1"/>
     </row>
     <row r="311" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D311" s="1"/>
@@ -18664,6 +18644,7 @@
     </row>
     <row r="314" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D314" s="1"/>
+      <c r="G314" s="1"/>
     </row>
     <row r="315" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D315" s="1"/>
@@ -18683,11 +18664,9 @@
     </row>
     <row r="319" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D319" s="1"/>
-      <c r="G319" s="1"/>
     </row>
     <row r="320" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D320" s="1"/>
-      <c r="G320" s="1"/>
     </row>
     <row r="321" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D321" s="1"/>
@@ -18700,9 +18679,11 @@
     </row>
     <row r="324" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D324" s="1"/>
+      <c r="G324" s="1"/>
     </row>
     <row r="325" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D325" s="1"/>
+      <c r="G325" s="1"/>
     </row>
     <row r="326" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D326" s="1"/>
@@ -18710,14 +18691,13 @@
     </row>
     <row r="327" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D327" s="1"/>
-      <c r="G327" s="1"/>
     </row>
     <row r="328" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D328" s="1"/>
-      <c r="G328" s="1"/>
     </row>
     <row r="329" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D329" s="1"/>
+      <c r="G329" s="1"/>
     </row>
     <row r="330" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D330" s="1"/>
@@ -18728,6 +18708,7 @@
     </row>
     <row r="332" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D332" s="1"/>
+      <c r="G332" s="1"/>
     </row>
     <row r="333" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D333" s="1"/>
@@ -18743,7 +18724,6 @@
     </row>
     <row r="336" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D336" s="1"/>
-      <c r="G336" s="1"/>
     </row>
     <row r="337" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D337" s="1"/>
@@ -18765,6 +18745,7 @@
     </row>
     <row r="342" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D342" s="1"/>
+      <c r="G342" s="1"/>
     </row>
     <row r="343" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D343" s="1"/>
@@ -18772,7 +18753,6 @@
     </row>
     <row r="344" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D344" s="1"/>
-      <c r="G344" s="1"/>
     </row>
     <row r="345" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D345" s="1"/>
@@ -18780,10 +18760,10 @@
     </row>
     <row r="346" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D346" s="1"/>
+      <c r="G346" s="1"/>
     </row>
     <row r="347" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D347" s="1"/>
-      <c r="G347" s="1"/>
     </row>
     <row r="348" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D348" s="1"/>
@@ -18791,6 +18771,7 @@
     </row>
     <row r="349" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D349" s="1"/>
+      <c r="G349" s="1"/>
     </row>
     <row r="350" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D350" s="1"/>
@@ -18802,7 +18783,6 @@
     </row>
     <row r="352" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D352" s="1"/>
-      <c r="G352" s="1"/>
     </row>
     <row r="353" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D353" s="1"/>
@@ -18817,6 +18797,7 @@
     </row>
     <row r="356" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D356" s="1"/>
+      <c r="G356" s="1"/>
     </row>
     <row r="357" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D357" s="1"/>
@@ -18824,20 +18805,20 @@
     </row>
     <row r="358" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D358" s="1"/>
-      <c r="G358" s="1"/>
     </row>
     <row r="359" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D359" s="1"/>
-      <c r="G359" s="1"/>
     </row>
     <row r="360" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D360" s="1"/>
     </row>
     <row r="361" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D361" s="1"/>
+      <c r="G361" s="1"/>
     </row>
     <row r="362" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D362" s="1"/>
+      <c r="G362" s="1"/>
     </row>
     <row r="363" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D363" s="1"/>
@@ -18845,21 +18826,20 @@
     </row>
     <row r="364" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D364" s="1"/>
-      <c r="G364" s="1"/>
     </row>
     <row r="365" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D365" s="1"/>
-      <c r="G365" s="1"/>
     </row>
     <row r="366" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D366" s="1"/>
+      <c r="G366" s="1"/>
     </row>
     <row r="367" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D367" s="1"/>
+      <c r="G367" s="1"/>
     </row>
     <row r="368" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D368" s="1"/>
-      <c r="G368" s="1"/>
     </row>
     <row r="369" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D369" s="1"/>
@@ -18867,28 +18847,27 @@
     </row>
     <row r="370" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D370" s="1"/>
+      <c r="G370" s="1"/>
     </row>
     <row r="371" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D371" s="1"/>
-      <c r="G371" s="1"/>
     </row>
     <row r="372" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D372" s="1"/>
-      <c r="G372" s="1"/>
     </row>
     <row r="373" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D373" s="1"/>
+      <c r="G373" s="1"/>
     </row>
     <row r="374" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D374" s="1"/>
+      <c r="G374" s="1"/>
     </row>
     <row r="375" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D375" s="1"/>
-      <c r="G375" s="1"/>
     </row>
     <row r="376" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D376" s="1"/>
-      <c r="G376" s="1"/>
     </row>
     <row r="377" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D377" s="1"/>
@@ -18898,13 +18877,14 @@
     </row>
     <row r="379" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D379" s="1"/>
+      <c r="G379" s="1"/>
     </row>
     <row r="380" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D380" s="1"/>
+      <c r="G380" s="1"/>
     </row>
     <row r="381" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D381" s="1"/>
-      <c r="G381" s="1"/>
     </row>
     <row r="382" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D382" s="1"/>
@@ -18912,6 +18892,7 @@
     </row>
     <row r="383" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D383" s="1"/>
+      <c r="G383" s="1"/>
     </row>
     <row r="384" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D384" s="1"/>
@@ -18923,7 +18904,6 @@
     </row>
     <row r="386" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D386" s="1"/>
-      <c r="G386" s="1"/>
     </row>
     <row r="387" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D387" s="1"/>
@@ -18931,6 +18911,7 @@
     </row>
     <row r="388" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D388" s="1"/>
+      <c r="G388" s="1"/>
     </row>
     <row r="389" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D389" s="1"/>
@@ -18942,7 +18923,6 @@
     </row>
     <row r="391" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D391" s="1"/>
-      <c r="G391" s="1"/>
     </row>
     <row r="392" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D392" s="1"/>
@@ -18950,6 +18930,7 @@
     </row>
     <row r="393" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D393" s="1"/>
+      <c r="G393" s="1"/>
     </row>
     <row r="394" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D394" s="1"/>
@@ -18957,7 +18938,6 @@
     </row>
     <row r="395" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D395" s="1"/>
-      <c r="G395" s="1"/>
     </row>
     <row r="396" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D396" s="1"/>
@@ -18972,14 +18952,13 @@
     </row>
     <row r="399" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D399" s="1"/>
+      <c r="G399" s="1"/>
     </row>
     <row r="400" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D400" s="1"/>
-      <c r="G400" s="1"/>
     </row>
     <row r="401" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D401" s="1"/>
-      <c r="G401" s="1"/>
     </row>
     <row r="402" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D402" s="1"/>
@@ -18989,9 +18968,11 @@
     </row>
     <row r="404" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D404" s="1"/>
+      <c r="G404" s="1"/>
     </row>
     <row r="405" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D405" s="1"/>
+      <c r="G405" s="1"/>
     </row>
     <row r="406" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D406" s="1"/>
@@ -18999,14 +18980,13 @@
     </row>
     <row r="407" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D407" s="1"/>
-      <c r="G407" s="1"/>
     </row>
     <row r="408" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D408" s="1"/>
-      <c r="G408" s="1"/>
     </row>
     <row r="409" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D409" s="1"/>
+      <c r="G409" s="1"/>
     </row>
     <row r="410" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D410" s="1"/>
@@ -19017,6 +18997,7 @@
     </row>
     <row r="412" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D412" s="1"/>
+      <c r="G412" s="1"/>
     </row>
     <row r="413" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D413" s="1"/>
@@ -19024,7 +19005,6 @@
     </row>
     <row r="414" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D414" s="1"/>
-      <c r="G414" s="1"/>
     </row>
     <row r="415" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D415" s="1"/>
@@ -19032,6 +19012,7 @@
     </row>
     <row r="416" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D416" s="1"/>
+      <c r="G416" s="1"/>
     </row>
     <row r="417" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D417" s="1"/>
@@ -19055,27 +19036,27 @@
     </row>
     <row r="422" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D422" s="1"/>
-      <c r="G422" s="1"/>
     </row>
     <row r="423" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D423" s="1"/>
-      <c r="G423" s="1"/>
     </row>
     <row r="424" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D424" s="1"/>
+      <c r="G424" s="1"/>
     </row>
     <row r="425" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D425" s="1"/>
     </row>
     <row r="426" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D426" s="1"/>
-      <c r="G426" s="1"/>
     </row>
     <row r="427" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D427" s="1"/>
+      <c r="G427" s="1"/>
     </row>
     <row r="428" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D428" s="1"/>
+      <c r="G428" s="1"/>
     </row>
     <row r="429" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D429" s="1"/>
@@ -19111,7 +19092,6 @@
     </row>
     <row r="437" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D437" s="1"/>
-      <c r="G437" s="1"/>
     </row>
     <row r="438" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D438" s="1"/>
@@ -19119,6 +19099,7 @@
     </row>
     <row r="439" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D439" s="1"/>
+      <c r="G439" s="1"/>
     </row>
     <row r="440" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D440" s="1"/>
@@ -19154,17 +19135,17 @@
     </row>
     <row r="448" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D448" s="1"/>
-      <c r="G448" s="1"/>
     </row>
     <row r="449" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D449" s="1"/>
-      <c r="G449" s="1"/>
     </row>
     <row r="450" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D450" s="1"/>
+      <c r="G450" s="1"/>
     </row>
     <row r="451" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D451" s="1"/>
+      <c r="G451" s="1"/>
     </row>
     <row r="452" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D452" s="1"/>
@@ -19172,7 +19153,6 @@
     </row>
     <row r="453" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D453" s="1"/>
-      <c r="G453" s="1"/>
     </row>
     <row r="454" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D454" s="1"/>
@@ -19180,10 +19160,10 @@
     </row>
     <row r="455" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D455" s="1"/>
+      <c r="G455" s="1"/>
     </row>
     <row r="456" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D456" s="1"/>
-      <c r="G456" s="1"/>
     </row>
     <row r="457" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D457" s="1"/>
@@ -19191,6 +19171,7 @@
     </row>
     <row r="458" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D458" s="1"/>
+      <c r="G458" s="1"/>
     </row>
     <row r="459" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D459" s="1"/>
@@ -19202,7 +19183,6 @@
     </row>
     <row r="461" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D461" s="1"/>
-      <c r="G461" s="1"/>
     </row>
     <row r="462" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D462" s="1"/>
@@ -19210,6 +19190,7 @@
     </row>
     <row r="463" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D463" s="1"/>
+      <c r="G463" s="1"/>
     </row>
     <row r="464" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D464" s="1"/>
@@ -19221,24 +19202,23 @@
     </row>
     <row r="466" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D466" s="1"/>
-      <c r="G466" s="1"/>
     </row>
     <row r="467" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D467" s="1"/>
-      <c r="G467" s="1"/>
     </row>
     <row r="468" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D468" s="1"/>
     </row>
     <row r="469" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D469" s="1"/>
+      <c r="G469" s="1"/>
     </row>
     <row r="470" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D470" s="1"/>
+      <c r="G470" s="1"/>
     </row>
     <row r="471" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D471" s="1"/>
-      <c r="G471" s="1"/>
     </row>
     <row r="472" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D472" s="1"/>
@@ -19246,6 +19226,7 @@
     </row>
     <row r="473" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D473" s="1"/>
+      <c r="G473" s="1"/>
     </row>
     <row r="474" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D474" s="1"/>
@@ -19257,25 +19238,23 @@
     </row>
     <row r="476" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D476" s="1"/>
-      <c r="G476" s="1"/>
     </row>
     <row r="477" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D477" s="1"/>
-      <c r="G477" s="1"/>
     </row>
     <row r="478" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D478" s="1"/>
+      <c r="G478" s="1"/>
     </row>
     <row r="479" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D479" s="1"/>
+      <c r="G479" s="1"/>
     </row>
     <row r="480" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D480" s="1"/>
-      <c r="G480" s="1"/>
     </row>
     <row r="481" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D481" s="1"/>
-      <c r="G481" s="1"/>
     </row>
     <row r="482" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D482" s="1"/>
@@ -19285,9 +19264,11 @@
     </row>
     <row r="484" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D484" s="1"/>
+      <c r="G484" s="1"/>
     </row>
     <row r="485" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D485" s="1"/>
+      <c r="G485" s="1"/>
     </row>
     <row r="486" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D486" s="1"/>
@@ -19299,30 +19280,30 @@
     </row>
     <row r="488" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D488" s="1"/>
-      <c r="G488" s="1"/>
     </row>
     <row r="489" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D489" s="1"/>
-      <c r="G489" s="1"/>
     </row>
     <row r="490" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D490" s="1"/>
     </row>
     <row r="491" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D491" s="1"/>
+      <c r="G491" s="1"/>
     </row>
     <row r="492" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D492" s="1"/>
     </row>
     <row r="493" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D493" s="1"/>
-      <c r="G493" s="1"/>
     </row>
     <row r="494" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D494" s="1"/>
+      <c r="G494" s="1"/>
     </row>
     <row r="495" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D495" s="1"/>
+      <c r="G495" s="1"/>
     </row>
     <row r="496" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D496" s="1"/>
@@ -19330,31 +19311,23 @@
     </row>
     <row r="497" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D497" s="1"/>
-      <c r="G497" s="1"/>
     </row>
     <row r="498" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D498" s="1"/>
-      <c r="G498" s="1"/>
     </row>
     <row r="499" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D499" s="1"/>
+      <c r="G499" s="1"/>
     </row>
     <row r="500" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D500" s="1"/>
+      <c r="G500" s="1"/>
     </row>
     <row r="501" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D501" s="1"/>
-      <c r="G501" s="1"/>
     </row>
     <row r="502" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D502" s="1"/>
-      <c r="G502" s="1"/>
-    </row>
-    <row r="503" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D503" s="1"/>
-    </row>
-    <row r="504" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D504" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
